--- a/发券名单.xlsx
+++ b/发券名单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaorui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaorui/IdeaProjects/test1/Socket/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -372,21 +372,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>15223314730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>9999</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
